--- a/biology/Zoologie/Gymnanthenea/Gymnanthenea.xlsx
+++ b/biology/Zoologie/Gymnanthenea/Gymnanthenea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnanthenea est un genre d'étoiles de mer de la famille des Oreasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des Oreasteridae caractéristiques, mais portant deux séries d'épines adambulacraires (contre trois chez Anthenea), et des plaques supéromarginales qui ne sont granuleuses que sur leur bord vertical (contrairement à Pseudoreaster obtusangulus), le granule supérieur étant généralement le plus gros[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des Oreasteridae caractéristiques, mais portant deux séries d'épines adambulacraires (contre trois chez Anthenea), et des plaques supéromarginales qui ne sont granuleuses que sur leur bord vertical (contrairement à Pseudoreaster obtusangulus), le granule supérieur étant généralement le plus gros.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 octobre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 octobre 2014) :
 Gymnanthenea globigera (Döderlein, 1915) -- Nord et Ouest de l'Australie
 Gymnanthenea laevis H.L. Clark, 1938 -- Région indonésienne, de l'Australie à Singapour
 			Gymnanthenea globigera
